--- a/Python-For-Finance-2nd-Edition/msft.xlsx
+++ b/Python-For-Finance-2nd-Edition/msft.xlsx
@@ -14348,7 +14348,7 @@
       </c>
       <c r="G480" t="inlineStr"/>
       <c r="H480" t="n">
-        <v>31.7</v>
+        <v>31.69</v>
       </c>
       <c r="I480" t="n">
         <v>30646800</v>
@@ -46219,7 +46219,7 @@
       </c>
       <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="n">
-        <v>87.09999999999999</v>
+        <v>87.11</v>
       </c>
       <c r="I1579" t="n">
         <v>26812000</v>

--- a/Python-For-Finance-2nd-Edition/msft.xlsx
+++ b/Python-For-Finance-2nd-Edition/msft.xlsx
@@ -3067,7 +3067,7 @@
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>24.57</v>
+        <v>24.56</v>
       </c>
       <c r="I91" t="n">
         <v>50309300</v>
